--- a/NOTES.xlsx
+++ b/NOTES.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abdp\Fox_Learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F67E207-55AC-419D-ADB7-A5CC7E41E1B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20ADF23-6081-40A9-8F9F-E4371E51A212}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0B5BF049-1685-4A8F-8A88-E86F1E43A4E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0B5BF049-1685-4A8F-8A88-E86F1E43A4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="w3layouts.com" sheetId="2" r:id="rId1"/>
     <sheet name="colorlib.com" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="AdminLTE Documentation" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://w3layouts.com</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Copy / close link berikut:</t>
+  </si>
+  <si>
+    <t>AdminLTE Documentation</t>
+  </si>
+  <si>
+    <t>https://adminlte.io/docs/3.0/index.html</t>
   </si>
 </sst>
 </file>
@@ -574,6 +580,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>46881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D4DC17-EB9B-4BE5-9340-847C20E3F3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="13009524" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="88900" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="93000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -895,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B7698E-371A-4C2D-B120-87857BE3C11C}">
   <dimension ref="B2:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
@@ -948,15 +1010,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9209AAA-A7F7-49AC-A8A1-B0257BCB16A3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>